--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,41 @@
         <v>13584700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6098500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,41 @@
         <v>6098500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>12905700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>12905700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>7661600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>7661600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7242000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,41 @@
         <v>7242000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>9436900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43856,6 +43856,41 @@
         <v>9436900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>4623200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,41 @@
         <v>4623200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>5816700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         <v>5816700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6719000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         <v>6719000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>6155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,41 @@
         <v>6155000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>4045900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44031,6 +44031,41 @@
         <v>4045900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4243300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44066,6 +44066,41 @@
         <v>4243300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>6051800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44101,6 +44101,76 @@
         <v>6051800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4675200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4874600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44171,6 +44171,76 @@
         <v>4874600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3993700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>4226300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44241,6 +44241,41 @@
         <v>4226300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4681700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44276,6 +44276,41 @@
         <v>4681700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4241100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44311,6 +44311,41 @@
         <v>4241100</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2566400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44346,6 +44346,41 @@
         <v>2566400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8409200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44381,6 +44381,76 @@
         <v>8409200</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>5281500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2879800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44451,6 +44451,41 @@
         <v>2879800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3001400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44486,6 +44486,41 @@
         <v>3001400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>8170100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1844"/>
+  <dimension ref="A1:I1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65626,6 +65626,41 @@
         <v>8170100</v>
       </c>
     </row>
+    <row r="1845">
+      <c r="A1845" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1845" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1845" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>4247800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1845"/>
+  <dimension ref="A1:I1846"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65661,6 +65661,41 @@
         <v>4247800</v>
       </c>
     </row>
+    <row r="1846">
+      <c r="A1846" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1846" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1846" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>8350700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1846"/>
+  <dimension ref="A1:I1847"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65696,6 +65696,41 @@
         <v>8350700</v>
       </c>
     </row>
+    <row r="1847">
+      <c r="A1847" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1847" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1847" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>2663400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1847"/>
+  <dimension ref="A1:I1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65731,6 +65731,41 @@
         <v>2663400</v>
       </c>
     </row>
+    <row r="1848">
+      <c r="A1848" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1848" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1848" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>3281300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1848"/>
+  <dimension ref="A1:I1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65766,6 +65766,41 @@
         <v>3281300</v>
       </c>
     </row>
+    <row r="1849">
+      <c r="A1849" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1849" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1849" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>5437700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1849"/>
+  <dimension ref="A1:I1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65801,6 +65801,41 @@
         <v>5437700</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1850" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1850" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>2357500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1850"/>
+  <dimension ref="A1:I1851"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65836,6 +65836,41 @@
         <v>2357500</v>
       </c>
     </row>
+    <row r="1851">
+      <c r="A1851" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1851" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1851" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>2027300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1851"/>
+  <dimension ref="A1:I1852"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65871,6 +65871,41 @@
         <v>2027300</v>
       </c>
     </row>
+    <row r="1852">
+      <c r="A1852" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1852" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1852" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>7164600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1852"/>
+  <dimension ref="A1:I1853"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65906,6 +65906,41 @@
         <v>7164600</v>
       </c>
     </row>
+    <row r="1853">
+      <c r="A1853" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1853" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1853" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>4518200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1853"/>
+  <dimension ref="A1:I1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65941,6 +65941,41 @@
         <v>4518200</v>
       </c>
     </row>
+    <row r="1854">
+      <c r="A1854" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1854" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1854" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>7453600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1854"/>
+  <dimension ref="A1:I1855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65976,6 +65976,41 @@
         <v>7453600</v>
       </c>
     </row>
+    <row r="1855">
+      <c r="A1855" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1855" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1855" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>2403000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1855"/>
+  <dimension ref="A1:I1856"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66011,6 +66011,41 @@
         <v>2403000</v>
       </c>
     </row>
+    <row r="1856">
+      <c r="A1856" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1856" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1856" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>3652600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1856"/>
+  <dimension ref="A1:I1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66046,6 +66046,41 @@
         <v>3652600</v>
       </c>
     </row>
+    <row r="1857">
+      <c r="A1857" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1857" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1857" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>9963000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1857"/>
+  <dimension ref="A1:I1858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66081,6 +66081,41 @@
         <v>9963000</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1858" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1858" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>6498400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7181.xlsx
+++ b/data/7181.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1858"/>
+  <dimension ref="A1:I1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66116,6 +66116,41 @@
         <v>6498400</v>
       </c>
     </row>
+    <row r="1859">
+      <c r="A1859" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>7181</t>
+        </is>
+      </c>
+      <c r="D1859" t="inlineStr">
+        <is>
+          <t>ARBB</t>
+        </is>
+      </c>
+      <c r="E1859" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>4365800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
